--- a/biology/Médecine/Sisa/Sisa.xlsx
+++ b/biology/Médecine/Sisa/Sisa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sisa (prononciation grecque de « shisha ») est une substance psychoactive venue de Grèce.
-À base de méthamphétamine, elle est composée de liquide de batterie et de détergent[1].
-Cette drogue bon marché (elle ne coûte que quelques euros[2]) est connue pour être consommée par des personnes sans-domicile fixe à Athènes (notamment le quartier d'Exarchia), et pour causer de sérieux dommages médicaux, comme de l'insomnie, des crises cardiaques[1]...
-Elle est consommée par différentes voies : fumée, sniffée et par injection intraveineuse[1].
+À base de méthamphétamine, elle est composée de liquide de batterie et de détergent.
+Cette drogue bon marché (elle ne coûte que quelques euros) est connue pour être consommée par des personnes sans-domicile fixe à Athènes (notamment le quartier d'Exarchia), et pour causer de sérieux dommages médicaux, comme de l'insomnie, des crises cardiaques...
+Elle est consommée par différentes voies : fumée, sniffée et par injection intraveineuse.
 </t>
         </is>
       </c>
